--- a/data/outputs/management_elsevier/58.xlsx
+++ b/data/outputs/management_elsevier/58.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS53"/>
+  <dimension ref="A1:BU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84949085531</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2989</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84949109018</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>3109</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1391,12 @@
           <t>2-s2.0-84948764070</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3469</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1586,6 +1614,12 @@
           <t>2-s2.0-84949090061</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>3234</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1797,6 +1831,12 @@
           <t>2-s2.0-84949094468</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1940</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2012,6 +2052,12 @@
           <t>2-s2.0-84949090237</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>5168</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2229,6 +2275,12 @@
           <t>2-s2.0-84949105406</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1488</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2440,6 +2492,12 @@
           <t>2-s2.0-84949107781</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>4789</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2657,6 +2715,12 @@
           <t>2-s2.0-84948781782</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1252</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2877,6 +2941,12 @@
         <is>
           <t>2-s2.0-84948735847</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>5414</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -3087,6 +3157,12 @@
           <t>2-s2.0-84948736025</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1677</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3298,6 +3374,12 @@
           <t>2-s2.0-84948764133</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2414</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3509,6 +3591,12 @@
           <t>2-s2.0-84949113000</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2339</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3725,6 +3813,12 @@
         <is>
           <t>2-s2.0-84949109285</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1690</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -3939,6 +4033,12 @@
           <t>2-s2.0-84949099391</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2404</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4142,6 +4242,12 @@
           <t>2-s2.0-84948753426</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1810</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4353,6 +4459,12 @@
           <t>2-s2.0-84949095333</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1905</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4564,6 +4676,12 @@
           <t>2-s2.0-84948770701</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1925</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4774,6 +4892,12 @@
         <is>
           <t>2-s2.0-84949087674</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>2278</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -4962,6 +5086,12 @@
           <t>2-s2.0-84941317193</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1124</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5206,6 +5336,12 @@
         <is>
           <t>2-s2.0-84941317063</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>2541</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -5434,6 +5570,12 @@
           <t>2-s2.0-84941317532</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3251</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5659,6 +5801,12 @@
           <t>2-s2.0-84941315616</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4087</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5886,6 +6034,12 @@
           <t>2-s2.0-84941315678</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>3423</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6115,6 +6269,12 @@
           <t>2-s2.0-84941315769</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2839</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6358,6 +6518,12 @@
           <t>2-s2.0-84941316002</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2291</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6593,6 +6759,12 @@
           <t>2-s2.0-84941318005</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>7389</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6829,6 +7001,12 @@
         <is>
           <t>2-s2.0-84941318061</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>5268</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -7013,6 +7191,12 @@
           <t>2-s2.0-84930606956</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>416</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7196,6 +7380,12 @@
           <t>2-s2.0-84930608504</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>621</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7403,6 +7593,12 @@
           <t>2-s2.0-84930574951</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1925</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7622,6 +7818,12 @@
           <t>2-s2.0-84930572304</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2039</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7831,6 +8033,12 @@
           <t>2-s2.0-84930571564</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2887</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8050,6 +8258,12 @@
           <t>2-s2.0-84930577075</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2285</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8263,6 +8477,12 @@
           <t>2-s2.0-84930575990</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>7531</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8483,6 +8703,12 @@
         <is>
           <t>2-s2.0-84930576222</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>3110</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -8691,6 +8917,12 @@
           <t>2-s2.0-84930575739</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2001</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8898,6 +9130,12 @@
           <t>2-s2.0-84930575955</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1643</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9110,6 +9348,12 @@
         <is>
           <t>2-s2.0-84930575356</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>1142</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -9306,6 +9550,12 @@
           <t>2-s2.0-84930599482</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>987</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9523,6 +9773,12 @@
           <t>2-s2.0-84930606953</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>8982</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9734,6 +9990,12 @@
           <t>2-s2.0-84930572043</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>6378</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9947,6 +10209,12 @@
           <t>2-s2.0-84924423710</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>5277</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10165,6 +10433,12 @@
         <is>
           <t>2-s2.0-84924406870</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>2415</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -10373,6 +10647,12 @@
           <t>2-s2.0-84924581644</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>3429</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10586,6 +10866,12 @@
           <t>2-s2.0-84924363684</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>8270</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10808,6 +11094,12 @@
         <is>
           <t>2-s2.0-84924390251</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>2480</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -11016,6 +11308,12 @@
           <t>2-s2.0-84924406467</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2507</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11235,6 +11533,12 @@
           <t>2-s2.0-84924359483</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>4502</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11449,6 +11753,12 @@
         <is>
           <t>2-s2.0-84924528507</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>2160</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -11656,6 +11966,12 @@
         <is>
           <t>2-s2.0-84924407355</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>1157</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -11860,6 +12176,12 @@
           <t>2-s2.0-84924554786</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>3811</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
